--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>-9.190494055966337</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.64373620368062</v>
+        <v>-21.60889714074698</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06192918468714714</v>
+        <v>-0.06648573908711188</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.918414014172244</v>
+        <v>-8.923503470320703</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.170390848454945</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.79004462317991</v>
+        <v>-21.75556245774756</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1959026398612175</v>
+        <v>-0.1994422808328639</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.429239543096203</v>
+        <v>-8.434773898869551</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.020933288654453</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.96278790280862</v>
+        <v>-21.9341383225685</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3565505165011758</v>
+        <v>-0.3580563306161855</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.324282343677273</v>
+        <v>-8.329435356915001</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.737526292365047</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.0792782694266</v>
+        <v>-22.0523105075487</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.383953399990234</v>
+        <v>-0.3852294307824988</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.790745024290844</v>
+        <v>-7.799999914289915</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.327042223850555</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.00111282763837</v>
+        <v>-21.98128301578616</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5061247925875717</v>
+        <v>-0.5076354957094484</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.097078062992351</v>
+        <v>-7.106704517513307</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.808262573332106</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.26974908795474</v>
+        <v>-22.25097530158579</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.658837811082527</v>
+        <v>-0.6574444441254562</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.504657544900799</v>
+        <v>-6.516029374873243</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.202549592304574</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.65711488003415</v>
+        <v>-22.63796464013644</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8292832574837828</v>
+        <v>-0.8270196473044013</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.085376315994173</v>
+        <v>-6.095525894249889</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.526761438317108</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.92459733472993</v>
+        <v>-22.90762759189487</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9595752904870661</v>
+        <v>-0.9556934190347357</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.757739520807868</v>
+        <v>-5.769927814927087</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.800449875963746</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.36852404725267</v>
+        <v>-23.35382769261073</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.058284339130079</v>
+        <v>-1.054554026890623</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.458190070071989</v>
+        <v>-5.467909415723415</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.046245317068836</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.77629166498771</v>
+        <v>-23.76533051159209</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.321767586208726</v>
+        <v>-1.316707464101469</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.065079694923958</v>
+        <v>-5.076827978425155</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.277720042807725</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.24101132371545</v>
+        <v>-24.23083241141853</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.241441203385314</v>
+        <v>-1.237031319191356</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.908817257443623</v>
+        <v>-4.917764140010077</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.502304718559188</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82538942551092</v>
+        <v>-24.81648654400627</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.174716037665658</v>
+        <v>-1.168423885827939</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.840229380107673</v>
+        <v>-4.844932604713645</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.737077664820707</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42531456914319</v>
+        <v>-25.41733082092952</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.108797558079044</v>
+        <v>-1.102168064767508</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.711301380020259</v>
+        <v>-4.715740598255418</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.989449462784492</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03833247316506</v>
+        <v>-26.03088651570674</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.066893880222716</v>
+        <v>-1.059379476668268</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.733306799928243</v>
+        <v>-4.734573052706774</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.264431679896462</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.81219625860499</v>
+        <v>-26.80329826610721</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9731765075908235</v>
+        <v>-0.9660923366406639</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.690092868231582</v>
+        <v>-4.688582165109706</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.5714614292890212</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56748426245408</v>
+        <v>-27.56125811220906</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8493672976930694</v>
+        <v>-0.8425422441068562</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.722824769205578</v>
+        <v>-4.718962453780715</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.08478192437361677</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45390520848756</v>
+        <v>-28.4448996578387</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6790000754016843</v>
+        <v>-0.6740670674729671</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.982118137399278</v>
+        <v>-4.974457063638823</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7003177803668357</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.10166439530572</v>
+        <v>-29.09493712185685</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4277637905246589</v>
+        <v>-0.4222001007101097</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.282337382075925</v>
+        <v>-5.268144595141271</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.26968842008182</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.52380813773293</v>
+        <v>-29.51766754510808</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2240584304077806</v>
+        <v>-0.2183187363460225</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.604307818303476</v>
+        <v>-5.591879962847778</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.78563637284331</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.12031831006865</v>
+        <v>-30.1133001407112</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1892093200525399</v>
+        <v>0.1939272116791128</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.934545565142979</v>
+        <v>-5.920905235984288</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.241529664344228</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.67634261653946</v>
+        <v>-30.66843709243566</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2480240726615267</v>
+        <v>0.2511188140082839</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.206266788792379</v>
+        <v>-6.190822416099794</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.631416324151302</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.00101178455754</v>
+        <v>-30.9941256183855</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5323491560138325</v>
+        <v>0.5357176817451369</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.50362596445188</v>
+        <v>-6.487893140354148</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.948926831718295</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.20708342399801</v>
+        <v>-31.19935390414142</v>
       </c>
       <c r="F24" t="n">
-        <v>0.722932421699911</v>
+        <v>0.7274254190106058</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.767387884921941</v>
+        <v>-6.75022747081907</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.19151833472496</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.5042372613691</v>
+        <v>-31.49736820672108</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9642586896576997</v>
+        <v>0.9668791973383661</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.825019497869135</v>
+        <v>-6.806886171399747</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.358687102301677</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.41632802889511</v>
+        <v>-31.40980853823807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9973817111810485</v>
+        <v>0.9986381859458456</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.008758153941533</v>
+        <v>-6.989862142400906</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.449875239629239</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.51570442697545</v>
+        <v>-31.50914826876692</v>
       </c>
       <c r="F27" t="n">
-        <v>1.241582715176583</v>
+        <v>1.243797435287296</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.267098165796185</v>
+        <v>-7.248094596104487</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.466200357222751</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33838259241588</v>
+        <v>-31.32968016019277</v>
       </c>
       <c r="F28" t="n">
-        <v>1.401541241848306</v>
+        <v>1.402739048530701</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.452987984890025</v>
+        <v>-7.432190149678169</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.408701904888232</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.14153895343672</v>
+        <v>-31.1341296635299</v>
       </c>
       <c r="F29" t="n">
-        <v>1.4224075231563</v>
+        <v>1.423575995797492</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.757568223691959</v>
+        <v>-7.735660583921313</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.277600575617012</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.03738844015083</v>
+        <v>-31.027610426417</v>
       </c>
       <c r="F30" t="n">
-        <v>1.552166654411089</v>
+        <v>1.552230211500359</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.800718598299351</v>
+        <v>-7.777324700441163</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.072451682654618</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.75384559789723</v>
+        <v>-30.74534850396253</v>
       </c>
       <c r="F31" t="n">
-        <v>1.454904751800683</v>
+        <v>1.457437257357745</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.739610901469781</v>
+        <v>-7.718588171942047</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.794703194217928</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.34698244643257</v>
+        <v>-30.33815045552748</v>
       </c>
       <c r="F32" t="n">
-        <v>1.435319390291822</v>
+        <v>1.435426948442894</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.732546286547088</v>
+        <v>-7.712858255894022</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.445290399931352</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.85320008638445</v>
+        <v>-29.84377652564848</v>
       </c>
       <c r="F33" t="n">
-        <v>1.374676149114609</v>
+        <v>1.376568194772105</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.985332386600926</v>
+        <v>-7.964451438272333</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.026549981371229</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.28034048476743</v>
+        <v>-29.26930844077224</v>
       </c>
       <c r="F34" t="n">
-        <v>1.376568194772105</v>
+        <v>1.37758999720729</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.996181092838611</v>
+        <v>-7.974669462624185</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.543661120800602</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79913020587759</v>
+        <v>-28.78949641784634</v>
       </c>
       <c r="F35" t="n">
-        <v>1.392882810687</v>
+        <v>1.393694385826908</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.968357754758998</v>
+        <v>-7.949486188252706</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.002665794586266</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.16585225739923</v>
+        <v>-28.15818385012848</v>
       </c>
       <c r="F36" t="n">
-        <v>1.319337480387998</v>
+        <v>1.320422839912454</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.789811223979264</v>
+        <v>-7.773594388201706</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4114878284288272</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.52247850974069</v>
+        <v>-27.51495677267594</v>
       </c>
       <c r="F37" t="n">
-        <v>1.408332072386451</v>
+        <v>1.409700994309188</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.699056589508722</v>
+        <v>-7.683289542362921</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.2207152096424931</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.93844019392247</v>
+        <v>-26.93233626884912</v>
       </c>
       <c r="F38" t="n">
-        <v>1.241724496375724</v>
+        <v>1.244041885630641</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.625819266642336</v>
+        <v>-7.61212026940124</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.8838628397216832</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16809160441985</v>
+        <v>-26.16402883971344</v>
       </c>
       <c r="F39" t="n">
-        <v>1.326465652399961</v>
+        <v>1.32828925196132</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.536252660840454</v>
+        <v>-7.523951919563296</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.568936366718849</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.5383435188994</v>
+        <v>-25.5323887085355</v>
       </c>
       <c r="F40" t="n">
-        <v>1.321693981697852</v>
+        <v>1.323903812801697</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.195175985776999</v>
+        <v>-7.185642422386515</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.267191882217463</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.96353809254934</v>
+        <v>-24.95945577181547</v>
       </c>
       <c r="F41" t="n">
-        <v>1.379320705638178</v>
+        <v>1.379863385400406</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.180944086787409</v>
+        <v>-7.173605687480171</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.96520426409911</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.28626886028248</v>
+        <v>-24.28142874348423</v>
       </c>
       <c r="F42" t="n">
-        <v>1.375028157609027</v>
+        <v>1.377619331248492</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.918345749951675</v>
+        <v>-6.910122440401524</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.657449438422386</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.60451151971179</v>
+        <v>-23.59939272952213</v>
       </c>
       <c r="F43" t="n">
-        <v>1.327932354460035</v>
+        <v>1.330699532346709</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.85158636118395</v>
+        <v>-6.845836889108458</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.337476654369683</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.91524466459352</v>
+        <v>-22.91170013461501</v>
       </c>
       <c r="F44" t="n">
-        <v>1.439890611712387</v>
+        <v>1.44216888891237</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.770800411715048</v>
+        <v>-6.765143830770027</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.993073697419421</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.08439705961626</v>
+        <v>-22.08015829066265</v>
       </c>
       <c r="F45" t="n">
-        <v>1.483089876388448</v>
+        <v>1.486482847154087</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.61127700665448</v>
+        <v>-6.608387603596134</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.621565066900238</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.56148844115851</v>
+        <v>-21.55819813953707</v>
       </c>
       <c r="F46" t="n">
-        <v>1.472055387889821</v>
+        <v>1.476274600815968</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.500198770638172</v>
+        <v>-6.495197316613319</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.220980519531415</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86937618404369</v>
+        <v>-20.86861349897245</v>
       </c>
       <c r="F47" t="n">
-        <v>1.557192553470278</v>
+        <v>1.558957484949234</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.475103498390298</v>
+        <v>-6.472302097455556</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.784323444946949</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.22254101952338</v>
+        <v>-20.22406150065899</v>
       </c>
       <c r="F48" t="n">
-        <v>1.60317855206048</v>
+        <v>1.605657278542006</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.446023685545888</v>
+        <v>-6.443940968620582</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.307672971544267</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.45461493292331</v>
+        <v>-19.45619408214132</v>
       </c>
       <c r="F49" t="n">
-        <v>1.747599814909147</v>
+        <v>1.749824313033594</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.201783569495418</v>
+        <v>-6.201710234392414</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.792976034651383</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.05016206184404</v>
+        <v>-19.05420038151611</v>
       </c>
       <c r="F50" t="n">
-        <v>1.737064005110946</v>
+        <v>1.74022719255384</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.218865759488419</v>
+        <v>-6.215907910333935</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.236759366592585</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.47386548839957</v>
+        <v>-18.47722912512401</v>
       </c>
       <c r="F51" t="n">
-        <v>1.717962655281909</v>
+        <v>1.718348886824395</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.280032124400392</v>
+        <v>-6.276145363941194</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.630852490666094</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.0124019082452</v>
+        <v>-18.01379038619541</v>
       </c>
       <c r="F52" t="n">
-        <v>1.718280440728258</v>
+        <v>1.72094006046386</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.28210995231883</v>
+        <v>-6.2795432237137</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.979508153286973</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60773880987065</v>
+        <v>-17.6105988788878</v>
       </c>
       <c r="F53" t="n">
-        <v>1.804879419361923</v>
+        <v>1.807524372076924</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.18857836194788</v>
+        <v>-6.186832986496392</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.28115103752004</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.97764849386952</v>
+        <v>-16.98146191922572</v>
       </c>
       <c r="F54" t="n">
-        <v>1.857934921881684</v>
+        <v>1.861176333434448</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.19349181384913</v>
+        <v>-6.190397072502373</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.524902800978513</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.77308266854407</v>
+        <v>-16.77568362019727</v>
       </c>
       <c r="F55" t="n">
-        <v>1.849648055242263</v>
+        <v>1.851740550181303</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.421148418607024</v>
+        <v>-6.418963032537514</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.71702998343677</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22374407896377</v>
+        <v>-16.22459476615861</v>
       </c>
       <c r="F56" t="n">
-        <v>1.885772926981897</v>
+        <v>1.886892509554421</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.321979803318522</v>
+        <v>-6.320718439546858</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.85953401369459</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12908801701343</v>
+        <v>-16.12929824430871</v>
       </c>
       <c r="F57" t="n">
-        <v>1.925637888974722</v>
+        <v>1.927187704151534</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.503533073321409</v>
+        <v>-6.500780562455335</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.944371789068951</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91557530912152</v>
+        <v>-15.91544330593611</v>
       </c>
       <c r="F58" t="n">
-        <v>1.81367963172237</v>
+        <v>1.815346783063988</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.660421303680709</v>
+        <v>-6.657199448155412</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.974451937711132</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66196785591404</v>
+        <v>-15.65989980600934</v>
       </c>
       <c r="F59" t="n">
-        <v>1.869433866032668</v>
+        <v>1.870230774151975</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.425827198178662</v>
+        <v>-6.425255184375233</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.954834182087877</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.44004116720417</v>
+        <v>-15.43710776308402</v>
       </c>
       <c r="F60" t="n">
-        <v>1.933875865545474</v>
+        <v>1.934790109829587</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.44383341046951</v>
+        <v>-6.446287691916702</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.880981373367641</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29915465632028</v>
+        <v>-15.29673948692803</v>
       </c>
       <c r="F61" t="n">
-        <v>1.880605246723569</v>
+        <v>1.881656383199955</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.284241559312806</v>
+        <v>-6.286514947505921</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.749433308000603</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27357537239258</v>
+        <v>-15.26892103785528</v>
       </c>
       <c r="F62" t="n">
-        <v>1.875740684890988</v>
+        <v>1.876855378456645</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.366171536388566</v>
+        <v>-6.368195585231469</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.569395866194405</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22679735468994</v>
+        <v>-15.21969851671918</v>
       </c>
       <c r="F63" t="n">
-        <v>1.862354584089375</v>
+        <v>1.863395942552028</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.398566095888745</v>
+        <v>-6.402130181894726</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.340230405445032</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.2772519055565</v>
+        <v>-15.26899437295828</v>
       </c>
       <c r="F64" t="n">
-        <v>1.708116195451942</v>
+        <v>1.709211332990131</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.389809884590099</v>
+        <v>-6.39415132268792</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.056194287159949</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.33233145691917</v>
+        <v>-15.3218494261965</v>
       </c>
       <c r="F65" t="n">
-        <v>1.699755993709518</v>
+        <v>1.701066247549851</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.492635477015055</v>
+        <v>-6.49673246476953</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.727502727908897</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.34205569157746</v>
+        <v>-15.33082075379729</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794680951037538</v>
+        <v>1.794935179394618</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.445407670680656</v>
+        <v>-6.44777883901111</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.35441683511786</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.22700269297835</v>
+        <v>-15.21458461553639</v>
       </c>
       <c r="F67" t="n">
-        <v>1.618187803141909</v>
+        <v>1.617826016633757</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.197623024651673</v>
+        <v>-6.20287381802674</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.93047381024725</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.36176816726486</v>
+        <v>-15.34805939201003</v>
       </c>
       <c r="F68" t="n">
-        <v>1.581461583557644</v>
+        <v>1.582278047704418</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.319139290328844</v>
+        <v>-6.324282525552839</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.460589832186644</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.27535008188527</v>
+        <v>-15.26022349463904</v>
       </c>
       <c r="F69" t="n">
-        <v>1.541190833994865</v>
+        <v>1.543224660851502</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.193306031588187</v>
+        <v>-6.195471861630231</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.945729658499999</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.32850336454237</v>
+        <v>-15.31233541883348</v>
       </c>
       <c r="F70" t="n">
-        <v>1.475805256156745</v>
+        <v>1.476211043726698</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.130584962492535</v>
+        <v>-6.133503699592084</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.382046586807189</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.35623870049838</v>
+        <v>-15.33986052749422</v>
       </c>
       <c r="F71" t="n">
-        <v>1.367562644123248</v>
+        <v>1.368188437002213</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.137395349058148</v>
+        <v>-6.13940473088045</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.770810924758417</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.47495356524081</v>
+        <v>-15.45810604757742</v>
       </c>
       <c r="F72" t="n">
-        <v>1.289812767918699</v>
+        <v>1.290331002646592</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.0018965237416</v>
+        <v>-6.003099219430862</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.116861239833412</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.58608558033265</v>
+        <v>-15.5692331736624</v>
       </c>
       <c r="F73" t="n">
-        <v>1.223649837988739</v>
+        <v>1.2222222479836</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.153607295828838</v>
+        <v>-6.153485070657165</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.420044187627449</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.69729581953437</v>
+        <v>-15.68126965502462</v>
       </c>
       <c r="F74" t="n">
-        <v>1.084748263892819</v>
+        <v>1.085061160332301</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.067653666101606</v>
+        <v>-6.066607418632087</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.679049322549498</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.95756698910145</v>
+        <v>-15.93992256331876</v>
       </c>
       <c r="F75" t="n">
-        <v>1.029869161811698</v>
+        <v>1.030377618525858</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.105714584560539</v>
+        <v>-6.10382742790991</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.900806489975507</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.98158667983861</v>
+        <v>-15.96421603844046</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8084802638571887</v>
+        <v>0.8105385357481599</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.234701252730356</v>
+        <v>-6.230873160353561</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.087010275880821</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.03190922751976</v>
+        <v>-16.0163279626349</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6655159250548618</v>
+        <v>0.6665768395449824</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.173422440660445</v>
+        <v>-6.168103201189241</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.240998549586565</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.16538889300027</v>
+        <v>-16.15182678795145</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6846466089251</v>
+        <v>0.6847492780693052</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.145525767477827</v>
+        <v>-6.141076771228935</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3728148207354607</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.29428755904648</v>
+        <v>-16.28030011040024</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3978134650500669</v>
+        <v>0.3987961554303168</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.168455209683659</v>
+        <v>-6.162109278770403</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.5087372611049537</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.76356866118105</v>
+        <v>-16.75160037237084</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3779249851154569</v>
+        <v>0.3796410265257441</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.138241147246124</v>
+        <v>-6.130179174922581</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.388900308922451</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.22078858337494</v>
+        <v>-17.21078567532523</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2129650044188796</v>
+        <v>0.213576130277244</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.246038859654732</v>
+        <v>-6.236436850168111</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.25408515214987</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.65178387273469</v>
+        <v>-17.64257298379742</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.09235836342682578</v>
+        <v>-0.09185968472640045</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.297236539565065</v>
+        <v>-6.287018515213213</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.088088208978126</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12551397111815</v>
+        <v>-18.11788712040576</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1041213139486231</v>
+        <v>-0.1034515200078558</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.35221831079039</v>
+        <v>-6.338768652899508</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.872392548771266</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.90067578788125</v>
+        <v>-18.89439830306413</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2000387396706275</v>
+        <v>-0.2001707428560342</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.384720428441641</v>
+        <v>-6.370684089726729</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>4.591515918126285</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58955641145703</v>
+        <v>-19.58281447098755</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3580172185612502</v>
+        <v>-0.3577043221217677</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.488181591759296</v>
+        <v>-6.471915865913069</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>5.229899002663636</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23749649152927</v>
+        <v>-20.23315994243832</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5204153596595641</v>
+        <v>-0.518924212565155</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.746888279128967</v>
+        <v>-6.729473636669016</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.77277022492745</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98757281405823</v>
+        <v>-20.98444873867027</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.621588467763502</v>
+        <v>-0.6199310944356178</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.081790138519508</v>
+        <v>-7.062380781257856</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>6.208530053628673</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83572750334437</v>
+        <v>-21.83247631377787</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.737066809960033</v>
+        <v>-0.7354485486870842</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.379212871268279</v>
+        <v>-7.356566991460729</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>6.529463990939994</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.82047126647837</v>
+        <v>-22.81938101794705</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.949122593805602</v>
+        <v>-0.946712313420213</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.455647604625627</v>
+        <v>-7.433285287216358</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>6.730417866365134</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.87153440776208</v>
+        <v>-23.87450692393717</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.195699655138457</v>
+        <v>-1.194834300923014</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.819433716585901</v>
+        <v>-7.798142091680487</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>6.807242259172891</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.08011157228406</v>
+        <v>-25.0841841150042</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.120526285552773</v>
+        <v>-1.121240080555343</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.19184892566628</v>
+        <v>-8.169271491954868</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>6.763821279812448</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34484386967942</v>
+        <v>-26.35129735874375</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.330015340793212</v>
+        <v>-1.332953633920228</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.480104770539587</v>
+        <v>-8.456481089358652</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.606434466438511</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.59694786233754</v>
+        <v>-27.60510028128812</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.622671291846741</v>
+        <v>-1.622744626949744</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.784416113963839</v>
+        <v>-8.762176021726244</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.340975955082832</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09174948937962</v>
+        <v>-29.1032851010821</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.863484214083503</v>
+        <v>-1.864916693095509</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.11963575880073</v>
+        <v>-9.097733008036951</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>5.984903680549227</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.7276502991043</v>
+        <v>-30.73918591080678</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.122503797892657</v>
+        <v>-2.124909189271179</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.388115570897364</v>
+        <v>-9.368041308701812</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>5.550067746106999</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.56207167716349</v>
+        <v>-32.57484176309987</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.142798065397221</v>
+        <v>-2.145619022359431</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.738559583117828</v>
+        <v>-9.719028000684503</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.058471950358322</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.28159894934674</v>
+        <v>-34.29483593543892</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.506413062117153</v>
+        <v>-2.507033965989252</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.1009132160661</v>
+        <v>-10.08156741589371</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.509952130115441</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.26662862844469</v>
+        <v>-36.28147898680294</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.900110118089214</v>
+        <v>-2.90193860665744</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.52083490487229</v>
+        <v>-10.50477451731447</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.945063415046988</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.29492601831483</v>
+        <v>-38.31167575584087</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.1781577166244</v>
+        <v>-3.178944846729974</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.85126821198647</v>
+        <v>-10.836811418681</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.334435725829071</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.49442176164372</v>
+        <v>-40.51204418689552</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.541264256630174</v>
+        <v>-3.541244700602706</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.04140657804766</v>
+        <v>-11.02689111665979</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.739200935309484</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.40576188474009</v>
+        <v>-42.4231740826966</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.968646569915278</v>
+        <v>-3.968954577347893</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28566136111873</v>
+        <v>-11.27382996450079</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.067670552673329</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.67446152027016</v>
+        <v>-44.69210594605286</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.214837399705647</v>
+        <v>-4.21337558665244</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.43031729629701</v>
+        <v>-11.4183490074868</v>
       </c>
     </row>
   </sheetData>
